--- a/Original/CN/Dialog/Drama/ineien.xlsx
+++ b/Original/CN/Dialog/Drama/ineien.xlsx
@@ -8,7 +8,7 @@
     <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="fiama" sheetId="1" r:id="rId2"/>
+    <sheet name="fiama" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">Willow is a fort in the territory of Mysilia. 150 years ago when I was given this land, I named it Lothria. It means "Promised Land" in the old Elean language. But for some time now, people have called the fort by the name of the willow trees that surround it. Now I call it Willow, too.</t>
   </si>
   <si>
-    <t xml:space="preserve">…かつて、このウィロウは、ミシリアの掲げる人間とエレアの共存の象徴だった。しかし、二十年前の戦争で互いの関係にきしみが生じて以来、ウィロウの灯りもまた、照らす場所を失いくすぶっている。</t>
+    <t xml:space="preserve">…かつて、このウィロウは、ミシリアの掲げる人間とエレアの共存の象徴だった。しかし、先の戦争で互いの関係にきしみが生じて以来、ウィロウの灯りもまた、照らす場所を失いくすぶっている。</t>
   </si>
   <si>
     <t xml:space="preserve">...In the past, Willow was the symbol of the coexistence of humans and Elea that Mysilia upheld. However, when the last war caused the relationship between the two races to be strained, Willow's light has also lost its place to shine and has been smoldering since then.</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">我能帮上什么忙？</t>
   </si>
   <si>
-    <t xml:space="preserve">请告诉我有关柳木堡的事情</t>
+    <t xml:space="preserve">请和我讲讲柳木堡吧</t>
   </si>
   <si>
     <t xml:space="preserve">(返回)</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">柳木堡是位于米西利亚领土的城堡。150年前我拜领此地时把这座城堡命名成了罗斯利亚。这是一句古老的艾莱亚语，意思是约定之地。但不知从什么时候开始，人们看到山丘上茂密生长的柳树后，都把这里称作柳木堡。现在连我自己也管这里叫柳木堡了。</t>
   </si>
   <si>
-    <t xml:space="preserve">…曾经，柳木堡是米西利亚人类和艾莱亚共存的象征。但二十年前的战争让双方关系出现裂痕，自那之后柳木堡的灯火也变得日益黯淡了。</t>
+    <t xml:space="preserve">…曾经，柳木堡是米西利亚人类和艾莱亚共存的象征。之前的战争让双方关系出现裂痕，自那之后柳木堡的灯火也变得日益黯淡了。</t>
   </si>
 </sst>
 </file>
@@ -346,6 +346,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -356,7 +462,7 @@
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K28" sqref="K28"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -553,7 +659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" ht="137.3">
+    <row r="27" ht="64.15">
       <c r="H27" s="1">
         <v>6</v>
       </c>

--- a/Original/CN/Dialog/Drama/ineien.xlsx
+++ b/Original/CN/Dialog/Drama/ineien.xlsx
@@ -8,7 +8,7 @@
     <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="fiama" sheetId="1" r:id="rId3"/>
+    <sheet name="fiama" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
   <extLst>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">Willow is a fort in the territory of Mysilia. 150 years ago when I was given this land, I named it Lothria. It means "Promised Land" in the old Elean language. But for some time now, people have called the fort by the name of the willow trees that surround it. Now I call it Willow, too.</t>
   </si>
   <si>
-    <t xml:space="preserve">…かつて、このウィロウは、ミシリアの掲げる人間とエレアの共存の象徴だった。しかし、先の戦争で互いの関係にきしみが生じて以来、ウィロウの灯りもまた、照らす場所を失いくすぶっている。</t>
+    <t xml:space="preserve">…かつて、このウィロウは、ミシリアの掲げる人間とエレアの共存の象徴だった。しかし、二十年前の戦争で互いの関係にきしみが生じて以来、ウィロウの灯りもまた、照らす場所を失いくすぶっている。</t>
   </si>
   <si>
     <t xml:space="preserve">...In the past, Willow was the symbol of the coexistence of humans and Elea that Mysilia upheld. However, when the last war caused the relationship between the two races to be strained, Willow's light has also lost its place to shine and has been smoldering since then.</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">我能帮上什么忙？</t>
   </si>
   <si>
-    <t xml:space="preserve">请和我讲讲柳木堡吧</t>
+    <t xml:space="preserve">请告诉我有关柳木堡的事情</t>
   </si>
   <si>
     <t xml:space="preserve">(返回)</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">柳木堡是位于米西利亚领土的城堡。150年前我拜领此地时把这座城堡命名成了罗斯利亚。这是一句古老的艾莱亚语，意思是约定之地。但不知从什么时候开始，人们看到山丘上茂密生长的柳树后，都把这里称作柳木堡。现在连我自己也管这里叫柳木堡了。</t>
   </si>
   <si>
-    <t xml:space="preserve">…曾经，柳木堡是米西利亚人类和艾莱亚共存的象征。之前的战争让双方关系出现裂痕，自那之后柳木堡的灯火也变得日益黯淡了。</t>
+    <t xml:space="preserve">…曾经，柳木堡是米西利亚人类和艾莱亚共存的象征。但二十年前的战争让双方关系出现裂痕，自那之后柳木堡的灯火也变得日益黯淡了。</t>
   </si>
 </sst>
 </file>
@@ -346,112 +346,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -462,7 +356,7 @@
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K28" sqref="K28"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -659,7 +553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" ht="64.15">
+    <row r="27" ht="137.3">
       <c r="H27" s="1">
         <v>6</v>
       </c>
